--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H2">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I2">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J2">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.896208601715</v>
+        <v>6.9164455</v>
       </c>
       <c r="N2">
-        <v>6.896208601715</v>
+        <v>13.832891</v>
       </c>
       <c r="O2">
-        <v>0.6021009896685757</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P2">
-        <v>0.6021009896685757</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q2">
-        <v>138.5165940069938</v>
+        <v>142.2284538462413</v>
       </c>
       <c r="R2">
-        <v>138.5165940069938</v>
+        <v>568.9138153849651</v>
       </c>
       <c r="S2">
-        <v>0.01453785260288232</v>
+        <v>0.01350540087782482</v>
       </c>
       <c r="T2">
-        <v>0.01453785260288232</v>
+        <v>0.00817198260139974</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H3">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I3">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J3">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8372639326572699</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N3">
-        <v>0.8372639326572699</v>
+        <v>2.802176</v>
       </c>
       <c r="O3">
-        <v>0.07310066611694117</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P3">
-        <v>0.07310066611694117</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q3">
-        <v>16.81720419648335</v>
+        <v>19.20780261504</v>
       </c>
       <c r="R3">
-        <v>16.81720419648335</v>
+        <v>115.24681569024</v>
       </c>
       <c r="S3">
-        <v>0.001765030663320415</v>
+        <v>0.001823890137895235</v>
       </c>
       <c r="T3">
-        <v>0.001765030663320415</v>
+        <v>0.001655426441085954</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H4">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I4">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J4">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.6897185454941</v>
+        <v>0.035773</v>
       </c>
       <c r="N4">
-        <v>2.6897185454941</v>
+        <v>0.107319</v>
       </c>
       <c r="O4">
-        <v>0.2348366025020147</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P4">
-        <v>0.2348366025020147</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q4">
-        <v>54.02543241900117</v>
+        <v>0.7356290856975001</v>
       </c>
       <c r="R4">
-        <v>54.02543241900117</v>
+        <v>4.413774514185</v>
       </c>
       <c r="S4">
-        <v>0.005670178211823218</v>
+        <v>6.985216692626686E-05</v>
       </c>
       <c r="T4">
-        <v>0.005670178211823218</v>
+        <v>6.340026830252756E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H5">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I5">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J5">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.03038351982162</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N5">
-        <v>1.03038351982162</v>
+        <v>0.19391</v>
       </c>
       <c r="O5">
-        <v>0.08996174171246844</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P5">
-        <v>0.08996174171246844</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q5">
-        <v>20.69618596675493</v>
+        <v>1.329175970775</v>
       </c>
       <c r="R5">
-        <v>20.69618596675493</v>
+        <v>7.975055824650002</v>
       </c>
       <c r="S5">
-        <v>0.002172144811843505</v>
+        <v>0.0001262128205506239</v>
       </c>
       <c r="T5">
-        <v>0.002172144811843505</v>
+        <v>0.0001145551675522798</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>692.584010109969</v>
+        <v>20.5638075</v>
       </c>
       <c r="H6">
-        <v>692.584010109969</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I6">
-        <v>0.8325531468029204</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J6">
-        <v>0.8325531468029204</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.896208601715</v>
+        <v>2.689952</v>
       </c>
       <c r="N6">
-        <v>6.896208601715</v>
+        <v>8.069856</v>
       </c>
       <c r="O6">
-        <v>0.6021009896685757</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P6">
-        <v>0.6021009896685757</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q6">
-        <v>4776.203807930637</v>
+        <v>55.31565511224001</v>
       </c>
       <c r="R6">
-        <v>4776.203807930637</v>
+        <v>331.89393067344</v>
       </c>
       <c r="S6">
-        <v>0.5012810736417254</v>
+        <v>0.00525253616212354</v>
       </c>
       <c r="T6">
-        <v>0.5012810736417254</v>
+        <v>0.004767385416960294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>692.584010109969</v>
+        <v>20.5638075</v>
       </c>
       <c r="H7">
-        <v>692.584010109969</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I7">
-        <v>0.8325531468029204</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J7">
-        <v>0.8325531468029204</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8372639326572699</v>
+        <v>1.099586</v>
       </c>
       <c r="N7">
-        <v>0.8372639326572699</v>
+        <v>2.199172</v>
       </c>
       <c r="O7">
-        <v>0.07310066611694117</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P7">
-        <v>0.07310066611694117</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q7">
-        <v>579.875612000215</v>
+        <v>22.611674833695</v>
       </c>
       <c r="R7">
-        <v>579.875612000215</v>
+        <v>90.44669933478001</v>
       </c>
       <c r="S7">
-        <v>0.06086018960904899</v>
+        <v>0.00214710717082118</v>
       </c>
       <c r="T7">
-        <v>0.06086018960904899</v>
+        <v>0.001299193011893571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H8">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I8">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J8">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.6897185454941</v>
+        <v>6.9164455</v>
       </c>
       <c r="N8">
-        <v>2.6897185454941</v>
+        <v>13.832891</v>
       </c>
       <c r="O8">
-        <v>0.2348366025020147</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P8">
-        <v>0.2348366025020147</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q8">
-        <v>1862.856056305457</v>
+        <v>5138.37710991152</v>
       </c>
       <c r="R8">
-        <v>1862.856056305457</v>
+        <v>30830.26265946912</v>
       </c>
       <c r="S8">
-        <v>0.1955139523975589</v>
+        <v>0.4879181405277433</v>
       </c>
       <c r="T8">
-        <v>0.1955139523975589</v>
+        <v>0.4428515589470847</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H9">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I9">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J9">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.03038351982162</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N9">
-        <v>1.03038351982162</v>
+        <v>2.802176</v>
       </c>
       <c r="O9">
-        <v>0.08996174171246844</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P9">
-        <v>0.08996174171246844</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q9">
-        <v>713.6271501092823</v>
+        <v>693.9324067708587</v>
       </c>
       <c r="R9">
-        <v>713.6271501092823</v>
+        <v>6245.391660937728</v>
       </c>
       <c r="S9">
-        <v>0.07489793115458715</v>
+        <v>0.06589283003586499</v>
       </c>
       <c r="T9">
-        <v>0.07489793115458715</v>
+        <v>0.08970995362025959</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.329712846190816</v>
+        <v>742.921651</v>
       </c>
       <c r="H10">
-        <v>0.329712846190816</v>
+        <v>2228.764953</v>
       </c>
       <c r="I10">
-        <v>0.0003963468166034114</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J10">
-        <v>0.0003963468166034114</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>6.896208601715</v>
+        <v>0.035773</v>
       </c>
       <c r="N10">
-        <v>6.896208601715</v>
+        <v>0.107319</v>
       </c>
       <c r="O10">
-        <v>0.6021009896685757</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P10">
-        <v>0.6021009896685757</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q10">
-        <v>2.27376856599704</v>
+        <v>26.576536221223</v>
       </c>
       <c r="R10">
-        <v>2.27376856599704</v>
+        <v>239.188825991007</v>
       </c>
       <c r="S10">
-        <v>0.0002386408105289035</v>
+        <v>0.002523593316986155</v>
       </c>
       <c r="T10">
-        <v>0.0002386408105289035</v>
+        <v>0.003435752255594451</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.329712846190816</v>
+        <v>742.921651</v>
       </c>
       <c r="H11">
-        <v>0.329712846190816</v>
+        <v>2228.764953</v>
       </c>
       <c r="I11">
-        <v>0.0003963468166034114</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J11">
-        <v>0.0003963468166034114</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.8372639326572699</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N11">
-        <v>0.8372639326572699</v>
+        <v>0.19391</v>
       </c>
       <c r="O11">
-        <v>0.07310066611694117</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P11">
-        <v>0.07310066611694117</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q11">
-        <v>0.2760566742493442</v>
+        <v>48.01997911513667</v>
       </c>
       <c r="R11">
-        <v>0.2760566742493442</v>
+        <v>432.17981203623</v>
       </c>
       <c r="S11">
-        <v>2.89732163070385E-05</v>
+        <v>0.004559770218663847</v>
       </c>
       <c r="T11">
-        <v>2.89732163070385E-05</v>
+        <v>0.006207910247787625</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.329712846190816</v>
+        <v>742.921651</v>
       </c>
       <c r="H12">
-        <v>0.329712846190816</v>
+        <v>2228.764953</v>
       </c>
       <c r="I12">
-        <v>0.0003963468166034114</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J12">
-        <v>0.0003963468166034114</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.6897185454941</v>
+        <v>2.689952</v>
       </c>
       <c r="N12">
-        <v>2.6897185454941</v>
+        <v>8.069856</v>
       </c>
       <c r="O12">
-        <v>0.2348366025020147</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P12">
-        <v>0.2348366025020147</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q12">
-        <v>0.8868347570870815</v>
+        <v>1998.423580950752</v>
       </c>
       <c r="R12">
-        <v>0.8868347570870815</v>
+        <v>17985.81222855677</v>
       </c>
       <c r="S12">
-        <v>9.307673982363423E-05</v>
+        <v>0.1897616887097403</v>
       </c>
       <c r="T12">
-        <v>9.307673982363423E-05</v>
+        <v>0.2583515123540325</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.329712846190816</v>
+        <v>742.921651</v>
       </c>
       <c r="H13">
-        <v>0.329712846190816</v>
+        <v>2228.764953</v>
       </c>
       <c r="I13">
-        <v>0.0003963468166034114</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J13">
-        <v>0.0003963468166034114</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.03038351982162</v>
+        <v>1.099586</v>
       </c>
       <c r="N13">
-        <v>1.03038351982162</v>
+        <v>2.199172</v>
       </c>
       <c r="O13">
-        <v>0.08996174171246844</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P13">
-        <v>0.08996174171246844</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q13">
-        <v>0.3397306829884974</v>
+        <v>816.9062465364859</v>
       </c>
       <c r="R13">
-        <v>0.3397306829884974</v>
+        <v>4901.437479218916</v>
       </c>
       <c r="S13">
-        <v>3.56560499438352E-05</v>
+        <v>0.07756989576081229</v>
       </c>
       <c r="T13">
-        <v>3.56560499438352E-05</v>
+        <v>0.07040514875688518</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.04896403377959</v>
+        <v>0.631401</v>
       </c>
       <c r="H14">
-        <v>1.04896403377959</v>
+        <v>1.894203</v>
       </c>
       <c r="I14">
-        <v>0.001260956496913084</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J14">
-        <v>0.001260956496913084</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.896208601715</v>
+        <v>6.9164455</v>
       </c>
       <c r="N14">
-        <v>6.896208601715</v>
+        <v>13.832891</v>
       </c>
       <c r="O14">
-        <v>0.6021009896685757</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P14">
-        <v>0.6021009896685757</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q14">
-        <v>7.233874792640473</v>
+        <v>4.3670506051455</v>
       </c>
       <c r="R14">
-        <v>7.233874792640473</v>
+        <v>26.202303630873</v>
       </c>
       <c r="S14">
-        <v>0.0007592231547203884</v>
+        <v>0.000414676300566394</v>
       </c>
       <c r="T14">
-        <v>0.0007592231547203884</v>
+        <v>0.0003763747049158865</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.04896403377959</v>
+        <v>0.631401</v>
       </c>
       <c r="H15">
-        <v>1.04896403377959</v>
+        <v>1.894203</v>
       </c>
       <c r="I15">
-        <v>0.001260956496913084</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J15">
-        <v>0.001260956496913084</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8372639326572699</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N15">
-        <v>0.8372639326572699</v>
+        <v>2.802176</v>
       </c>
       <c r="O15">
-        <v>0.07310066611694117</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P15">
-        <v>0.07310066611694117</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q15">
-        <v>0.8782597521383328</v>
+        <v>0.589765576192</v>
       </c>
       <c r="R15">
-        <v>0.8782597521383328</v>
+        <v>5.307890185728</v>
       </c>
       <c r="S15">
-        <v>9.217675986883113E-05</v>
+        <v>5.600159683255104E-05</v>
       </c>
       <c r="T15">
-        <v>9.217675986883113E-05</v>
+        <v>7.624351013265264E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.04896403377959</v>
+        <v>0.631401</v>
       </c>
       <c r="H16">
-        <v>1.04896403377959</v>
+        <v>1.894203</v>
       </c>
       <c r="I16">
-        <v>0.001260956496913084</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J16">
-        <v>0.001260956496913084</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>2.6897185454941</v>
+        <v>0.035773</v>
       </c>
       <c r="N16">
-        <v>2.6897185454941</v>
+        <v>0.107319</v>
       </c>
       <c r="O16">
-        <v>0.2348366025020147</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P16">
-        <v>0.2348366025020147</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q16">
-        <v>2.821418015213263</v>
+        <v>0.022587107973</v>
       </c>
       <c r="R16">
-        <v>2.821418015213263</v>
+        <v>0.203283971757</v>
       </c>
       <c r="S16">
-        <v>0.0002961187396379108</v>
+        <v>2.144774407629123E-06</v>
       </c>
       <c r="T16">
-        <v>0.0002961187396379108</v>
+        <v>2.920008330642382E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.04896403377959</v>
+        <v>0.631401</v>
       </c>
       <c r="H17">
-        <v>1.04896403377959</v>
+        <v>1.894203</v>
       </c>
       <c r="I17">
-        <v>0.001260956496913084</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J17">
-        <v>0.001260956496913084</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.03038351982162</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N17">
-        <v>1.03038351982162</v>
+        <v>0.19391</v>
       </c>
       <c r="O17">
-        <v>0.08996174171246844</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P17">
-        <v>0.08996174171246844</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q17">
-        <v>1.080835253292099</v>
+        <v>0.04081165597000001</v>
       </c>
       <c r="R17">
-        <v>1.080835253292099</v>
+        <v>0.36730490373</v>
       </c>
       <c r="S17">
-        <v>0.0001134378426859539</v>
+        <v>3.875298925477906E-06</v>
       </c>
       <c r="T17">
-        <v>0.0001134378426859539</v>
+        <v>5.276035141912097E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.3985232690641</v>
+        <v>0.631401</v>
       </c>
       <c r="H18">
-        <v>17.3985232690641</v>
+        <v>1.894203</v>
       </c>
       <c r="I18">
-        <v>0.02091471227451985</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J18">
-        <v>0.02091471227451985</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.896208601715</v>
+        <v>2.689952</v>
       </c>
       <c r="N18">
-        <v>6.896208601715</v>
+        <v>8.069856</v>
       </c>
       <c r="O18">
-        <v>0.6021009896685757</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P18">
-        <v>0.6021009896685757</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q18">
-        <v>119.9838458252584</v>
+        <v>1.698438382752</v>
       </c>
       <c r="R18">
-        <v>119.9838458252584</v>
+        <v>15.285945444768</v>
       </c>
       <c r="S18">
-        <v>0.01259276895912191</v>
+        <v>0.0001612763874248952</v>
       </c>
       <c r="T18">
-        <v>0.01259276895912191</v>
+        <v>0.0002195701296795946</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.3985232690641</v>
+        <v>0.631401</v>
       </c>
       <c r="H19">
-        <v>17.3985232690641</v>
+        <v>1.894203</v>
       </c>
       <c r="I19">
-        <v>0.02091471227451985</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J19">
-        <v>0.02091471227451985</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8372639326572699</v>
+        <v>1.099586</v>
       </c>
       <c r="N19">
-        <v>0.8372639326572699</v>
+        <v>2.199172</v>
       </c>
       <c r="O19">
-        <v>0.07310066611694117</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P19">
-        <v>0.07310066611694117</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q19">
-        <v>14.56715601468563</v>
+        <v>0.6942796999859999</v>
       </c>
       <c r="R19">
-        <v>14.56715601468563</v>
+        <v>4.165678199915999</v>
       </c>
       <c r="S19">
-        <v>0.001528879398911567</v>
+        <v>6.592580750250962E-05</v>
       </c>
       <c r="T19">
-        <v>0.001528879398911567</v>
+        <v>5.983656724825491E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.3985232690641</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H20">
-        <v>17.3985232690641</v>
+        <v>3.218665</v>
       </c>
       <c r="I20">
-        <v>0.02091471227451985</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J20">
-        <v>0.02091471227451985</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.6897185454941</v>
+        <v>6.9164455</v>
       </c>
       <c r="N20">
-        <v>2.6897185454941</v>
+        <v>13.832891</v>
       </c>
       <c r="O20">
-        <v>0.2348366025020147</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P20">
-        <v>0.2348366025020147</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q20">
-        <v>46.79713070101235</v>
+        <v>7.420573685085834</v>
       </c>
       <c r="R20">
-        <v>46.79713070101235</v>
+        <v>44.523442110515</v>
       </c>
       <c r="S20">
-        <v>0.004911539972855426</v>
+        <v>0.0007046256895182474</v>
       </c>
       <c r="T20">
-        <v>0.004911539972855426</v>
+        <v>0.0006395429051680797</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.3985232690641</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H21">
-        <v>17.3985232690641</v>
+        <v>3.218665</v>
       </c>
       <c r="I21">
-        <v>0.02091471227451985</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J21">
-        <v>0.02091471227451985</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.03038351982162</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N21">
-        <v>1.03038351982162</v>
+        <v>2.802176</v>
       </c>
       <c r="O21">
-        <v>0.08996174171246844</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P21">
-        <v>0.08996174171246844</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q21">
-        <v>17.92715164567663</v>
+        <v>1.002140646115556</v>
       </c>
       <c r="R21">
-        <v>17.92715164567663</v>
+        <v>9.019265815040001</v>
       </c>
       <c r="S21">
-        <v>0.001881523943630949</v>
+        <v>9.515895586114208E-05</v>
       </c>
       <c r="T21">
-        <v>0.001881523943630949</v>
+        <v>0.0001295543917632453</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>100.432521958775</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H22">
-        <v>100.432521958775</v>
+        <v>3.218665</v>
       </c>
       <c r="I22">
-        <v>0.1207296313191738</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J22">
-        <v>0.1207296313191738</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>6.896208601715</v>
+        <v>0.035773</v>
       </c>
       <c r="N22">
-        <v>6.896208601715</v>
+        <v>0.107319</v>
       </c>
       <c r="O22">
-        <v>0.6021009896685757</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P22">
-        <v>0.6021009896685757</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q22">
-        <v>692.6036218240348</v>
+        <v>0.03838043434833334</v>
       </c>
       <c r="R22">
-        <v>692.6036218240348</v>
+        <v>0.345423909135</v>
       </c>
       <c r="S22">
-        <v>0.07269143049959685</v>
+        <v>3.644440600469744E-06</v>
       </c>
       <c r="T22">
-        <v>0.07269143049959685</v>
+        <v>4.961732514174597E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>100.432521958775</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H23">
-        <v>100.432521958775</v>
+        <v>3.218665</v>
       </c>
       <c r="I23">
-        <v>0.1207296313191738</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J23">
-        <v>0.1207296313191738</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.8372639326572699</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N23">
-        <v>0.8372639326572699</v>
+        <v>0.19391</v>
       </c>
       <c r="O23">
-        <v>0.07310066611694117</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P23">
-        <v>0.07310066611694117</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q23">
-        <v>84.08852830189157</v>
+        <v>0.06934792557222223</v>
       </c>
       <c r="R23">
-        <v>84.08852830189157</v>
+        <v>0.6241313301500001</v>
       </c>
       <c r="S23">
-        <v>0.008825416469484331</v>
+        <v>6.584980076566949E-06</v>
       </c>
       <c r="T23">
-        <v>0.008825416469484331</v>
+        <v>8.965137131575921E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>100.432521958775</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H24">
-        <v>100.432521958775</v>
+        <v>3.218665</v>
       </c>
       <c r="I24">
-        <v>0.1207296313191738</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J24">
-        <v>0.1207296313191738</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.6897185454941</v>
+        <v>2.689952</v>
       </c>
       <c r="N24">
-        <v>2.6897185454941</v>
+        <v>8.069856</v>
       </c>
       <c r="O24">
-        <v>0.2348366025020147</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P24">
-        <v>0.2348366025020147</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q24">
-        <v>270.1352168832606</v>
+        <v>2.886018118026667</v>
       </c>
       <c r="R24">
-        <v>270.1352168832606</v>
+        <v>25.97416306224</v>
       </c>
       <c r="S24">
-        <v>0.02835173644031561</v>
+        <v>0.0002740438398265393</v>
       </c>
       <c r="T24">
-        <v>0.02835173644031561</v>
+        <v>0.0003730976518594746</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>100.432521958775</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H25">
-        <v>100.432521958775</v>
+        <v>3.218665</v>
       </c>
       <c r="I25">
-        <v>0.1207296313191738</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J25">
-        <v>0.1207296313191738</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.03038351982162</v>
+        <v>1.099586</v>
       </c>
       <c r="N25">
-        <v>1.03038351982162</v>
+        <v>2.199172</v>
       </c>
       <c r="O25">
-        <v>0.08996174171246844</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P25">
-        <v>0.08996174171246844</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q25">
-        <v>103.4840154804447</v>
+        <v>1.179732990896667</v>
       </c>
       <c r="R25">
-        <v>103.4840154804447</v>
+        <v>7.07839794538</v>
       </c>
       <c r="S25">
-        <v>0.01086104790977706</v>
+        <v>0.0001120223593802064</v>
       </c>
       <c r="T25">
-        <v>0.01086104790977706</v>
+        <v>0.0001016754089831472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>20.33651533333333</v>
+      </c>
+      <c r="H26">
+        <v>61.009546</v>
+      </c>
+      <c r="I26">
+        <v>0.02267160886990901</v>
+      </c>
+      <c r="J26">
+        <v>0.02384144911164551</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.9164455</v>
+      </c>
+      <c r="N26">
+        <v>13.832891</v>
+      </c>
+      <c r="O26">
+        <v>0.5891123781422892</v>
+      </c>
+      <c r="P26">
+        <v>0.5084626450322738</v>
+      </c>
+      <c r="Q26">
+        <v>140.6563999629143</v>
+      </c>
+      <c r="R26">
+        <v>843.938399777486</v>
+      </c>
+      <c r="S26">
+        <v>0.01335612541766392</v>
+      </c>
+      <c r="T26">
+        <v>0.01212248627670963</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>20.33651533333333</v>
+      </c>
+      <c r="H27">
+        <v>61.009546</v>
+      </c>
+      <c r="I27">
+        <v>0.02267160886990901</v>
+      </c>
+      <c r="J27">
+        <v>0.02384144911164551</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.9340586666666667</v>
+      </c>
+      <c r="N27">
+        <v>2.802176</v>
+      </c>
+      <c r="O27">
+        <v>0.07955900504737815</v>
+      </c>
+      <c r="P27">
+        <v>0.1030010155365178</v>
+      </c>
+      <c r="Q27">
+        <v>18.99549839689956</v>
+      </c>
+      <c r="R27">
+        <v>170.959485572096</v>
+      </c>
+      <c r="S27">
+        <v>0.001803730644513274</v>
+      </c>
+      <c r="T27">
+        <v>0.002455693470361697</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>20.33651533333333</v>
+      </c>
+      <c r="H28">
+        <v>61.009546</v>
+      </c>
+      <c r="I28">
+        <v>0.02267160886990901</v>
+      </c>
+      <c r="J28">
+        <v>0.02384144911164551</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.035773</v>
+      </c>
+      <c r="N28">
+        <v>0.107319</v>
+      </c>
+      <c r="O28">
+        <v>0.003046986649903352</v>
+      </c>
+      <c r="P28">
+        <v>0.003944779338044274</v>
+      </c>
+      <c r="Q28">
+        <v>0.7274981630193333</v>
+      </c>
+      <c r="R28">
+        <v>6.547483467174</v>
+      </c>
+      <c r="S28">
+        <v>6.908008955844318E-05</v>
+      </c>
+      <c r="T28">
+        <v>9.40492558446532E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>20.33651533333333</v>
+      </c>
+      <c r="H29">
+        <v>61.009546</v>
+      </c>
+      <c r="I29">
+        <v>0.02267160886990901</v>
+      </c>
+      <c r="J29">
+        <v>0.02384144911164551</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.06463666666666668</v>
+      </c>
+      <c r="N29">
+        <v>0.19391</v>
+      </c>
+      <c r="O29">
+        <v>0.005505466704709875</v>
+      </c>
+      <c r="P29">
+        <v>0.007127648985176579</v>
+      </c>
+      <c r="Q29">
+        <v>1.314484562762223</v>
+      </c>
+      <c r="R29">
+        <v>11.83036106486</v>
+      </c>
+      <c r="S29">
+        <v>0.0001248177877754892</v>
+      </c>
+      <c r="T29">
+        <v>0.0001699334805657591</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>20.33651533333333</v>
+      </c>
+      <c r="H30">
+        <v>61.009546</v>
+      </c>
+      <c r="I30">
+        <v>0.02267160886990901</v>
+      </c>
+      <c r="J30">
+        <v>0.02384144911164551</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.689952</v>
+      </c>
+      <c r="N30">
+        <v>8.069856</v>
+      </c>
+      <c r="O30">
+        <v>0.2291182688866134</v>
+      </c>
+      <c r="P30">
+        <v>0.2966278218189939</v>
+      </c>
+      <c r="Q30">
+        <v>54.70425009393067</v>
+      </c>
+      <c r="R30">
+        <v>492.338250845376</v>
+      </c>
+      <c r="S30">
+        <v>0.005194479777147942</v>
+      </c>
+      <c r="T30">
+        <v>0.007072037118995795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>20.33651533333333</v>
+      </c>
+      <c r="H31">
+        <v>61.009546</v>
+      </c>
+      <c r="I31">
+        <v>0.02267160886990901</v>
+      </c>
+      <c r="J31">
+        <v>0.02384144911164551</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.099586</v>
+      </c>
+      <c r="N31">
+        <v>2.199172</v>
+      </c>
+      <c r="O31">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P31">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q31">
+        <v>22.36174754931867</v>
+      </c>
+      <c r="R31">
+        <v>134.170485295912</v>
+      </c>
+      <c r="S31">
+        <v>0.002123375153249946</v>
+      </c>
+      <c r="T31">
+        <v>0.001927249509167973</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>111.4773615</v>
+      </c>
+      <c r="H32">
+        <v>222.954723</v>
+      </c>
+      <c r="I32">
+        <v>0.1242774927932157</v>
+      </c>
+      <c r="J32">
+        <v>0.08712675361664747</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6.9164455</v>
+      </c>
+      <c r="N32">
+        <v>13.832891</v>
+      </c>
+      <c r="O32">
+        <v>0.5891123781422892</v>
+      </c>
+      <c r="P32">
+        <v>0.5084626450322738</v>
+      </c>
+      <c r="Q32">
+        <v>771.0270952985483</v>
+      </c>
+      <c r="R32">
+        <v>3084.108381194193</v>
+      </c>
+      <c r="S32">
+        <v>0.0732134093289725</v>
+      </c>
+      <c r="T32">
+        <v>0.0443006995969958</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>111.4773615</v>
+      </c>
+      <c r="H33">
+        <v>222.954723</v>
+      </c>
+      <c r="I33">
+        <v>0.1242774927932157</v>
+      </c>
+      <c r="J33">
+        <v>0.08712675361664747</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.9340586666666667</v>
+      </c>
+      <c r="N33">
+        <v>2.802176</v>
+      </c>
+      <c r="O33">
+        <v>0.07955900504737815</v>
+      </c>
+      <c r="P33">
+        <v>0.1030010155365178</v>
+      </c>
+      <c r="Q33">
+        <v>104.126395646208</v>
+      </c>
+      <c r="R33">
+        <v>624.758373877248</v>
+      </c>
+      <c r="S33">
+        <v>0.009887393676410946</v>
+      </c>
+      <c r="T33">
+        <v>0.008974144102914663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>111.4773615</v>
+      </c>
+      <c r="H34">
+        <v>222.954723</v>
+      </c>
+      <c r="I34">
+        <v>0.1242774927932157</v>
+      </c>
+      <c r="J34">
+        <v>0.08712675361664747</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.035773</v>
+      </c>
+      <c r="N34">
+        <v>0.107319</v>
+      </c>
+      <c r="O34">
+        <v>0.003046986649903352</v>
+      </c>
+      <c r="P34">
+        <v>0.003944779338044274</v>
+      </c>
+      <c r="Q34">
+        <v>3.9878796529395</v>
+      </c>
+      <c r="R34">
+        <v>23.927277917637</v>
+      </c>
+      <c r="S34">
+        <v>0.0003786718614243882</v>
+      </c>
+      <c r="T34">
+        <v>0.0003436958174578252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>111.4773615</v>
+      </c>
+      <c r="H35">
+        <v>222.954723</v>
+      </c>
+      <c r="I35">
+        <v>0.1242774927932157</v>
+      </c>
+      <c r="J35">
+        <v>0.08712675361664747</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.06463666666666668</v>
+      </c>
+      <c r="N35">
+        <v>0.19391</v>
+      </c>
+      <c r="O35">
+        <v>0.005505466704709875</v>
+      </c>
+      <c r="P35">
+        <v>0.007127648985176579</v>
+      </c>
+      <c r="Q35">
+        <v>7.205525056155001</v>
+      </c>
+      <c r="R35">
+        <v>43.23315033693001</v>
+      </c>
+      <c r="S35">
+        <v>0.0006842055987178703</v>
+      </c>
+      <c r="T35">
+        <v>0.0006210089169974271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>111.4773615</v>
+      </c>
+      <c r="H36">
+        <v>222.954723</v>
+      </c>
+      <c r="I36">
+        <v>0.1242774927932157</v>
+      </c>
+      <c r="J36">
+        <v>0.08712675361664747</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.689952</v>
+      </c>
+      <c r="N36">
+        <v>8.069856</v>
+      </c>
+      <c r="O36">
+        <v>0.2291182688866134</v>
+      </c>
+      <c r="P36">
+        <v>0.2966278218189939</v>
+      </c>
+      <c r="Q36">
+        <v>299.868751521648</v>
+      </c>
+      <c r="R36">
+        <v>1799.212509129888</v>
+      </c>
+      <c r="S36">
+        <v>0.02847424401035015</v>
+      </c>
+      <c r="T36">
+        <v>0.02584421914746629</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>111.4773615</v>
+      </c>
+      <c r="H37">
+        <v>222.954723</v>
+      </c>
+      <c r="I37">
+        <v>0.1242774927932157</v>
+      </c>
+      <c r="J37">
+        <v>0.08712675361664747</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.099586</v>
+      </c>
+      <c r="N37">
+        <v>2.199172</v>
+      </c>
+      <c r="O37">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P37">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q37">
+        <v>122.578946022339</v>
+      </c>
+      <c r="R37">
+        <v>490.315784089356</v>
+      </c>
+      <c r="S37">
+        <v>0.01163956831733982</v>
+      </c>
+      <c r="T37">
+        <v>0.007042986034815459</v>
       </c>
     </row>
   </sheetData>
